--- a/Code/Results/Cases/Case_2_246/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_246/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.642907966173823</v>
+        <v>1.139697690234698</v>
       </c>
       <c r="C2">
-        <v>0.4739464862543059</v>
+        <v>0.2941092967180055</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0428582636994197</v>
+        <v>0.1199065955010646</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>0.0008032514306028911</v>
+        <v>0.002446004638016376</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1488694074262114</v>
+        <v>0.1894141985854674</v>
       </c>
       <c r="M2">
-        <v>0.4347875663344354</v>
+        <v>0.240628942188124</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.156748720357726</v>
+        <v>2.773599229613637</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.297217272738635</v>
+        <v>1.033918060399799</v>
       </c>
       <c r="C3">
-        <v>0.434332293128989</v>
+        <v>0.2808339296921645</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.04521733187039378</v>
+        <v>0.1213875759088742</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.0008077533704890466</v>
+        <v>0.002448892298213491</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1350275566741175</v>
+        <v>0.1867897270564995</v>
       </c>
       <c r="M3">
-        <v>0.3788845219720542</v>
+        <v>0.2243639549636498</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.175288126347226</v>
+        <v>2.815708847190933</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.085503248834925</v>
+        <v>0.9690008673242119</v>
       </c>
       <c r="C4">
-        <v>0.4100609658426038</v>
+        <v>0.2726673365299632</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.04674594726105619</v>
+        <v>0.122350048167013</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.0008106029371319767</v>
+        <v>0.002450759036712857</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1266975246457065</v>
+        <v>0.1852698444733676</v>
       </c>
       <c r="M4">
-        <v>0.3447146005137824</v>
+        <v>0.2144243922471105</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.191856093432762</v>
+        <v>2.843955057983592</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.999327868109958</v>
+        <v>0.9425561265253464</v>
       </c>
       <c r="C5">
-        <v>0.4001801118452875</v>
+        <v>0.2693357656713999</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.04738872116456383</v>
+        <v>0.1227556414531241</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.0008117861068575629</v>
+        <v>0.002451543380652392</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1233424590981258</v>
+        <v>0.1846735488726594</v>
       </c>
       <c r="M5">
-        <v>0.3308223171321885</v>
+        <v>0.210386037112869</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.199845220451934</v>
+        <v>2.856065624789167</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.985023523514315</v>
+        <v>0.9381656187150043</v>
       </c>
       <c r="C6">
-        <v>0.398539914683596</v>
+        <v>0.2687823503883351</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0474966436559196</v>
+        <v>0.1228237983344491</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.0008119839107664414</v>
+        <v>0.002451675050110112</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1227876540223392</v>
+        <v>0.1845759291402587</v>
       </c>
       <c r="M6">
-        <v>0.3285172739419124</v>
+        <v>0.2097162087116757</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.201244684798695</v>
+        <v>2.858112779961573</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.084340699698544</v>
+        <v>0.9686441836462905</v>
       </c>
       <c r="C7">
-        <v>0.4099276730545967</v>
+        <v>0.2726224200874299</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.04675453594772061</v>
+        <v>0.1223554639535003</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.0008106188043462697</v>
+        <v>0.002450769518830898</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1266521209884885</v>
+        <v>0.1852617091543749</v>
       </c>
       <c r="M7">
-        <v>0.3445271223161512</v>
+        <v>0.2143698802926082</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.191958911721457</v>
+        <v>2.844115957470251</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.523578692682747</v>
+        <v>1.103219117882873</v>
       </c>
       <c r="C8">
-        <v>0.4602747419975799</v>
+        <v>0.2895353171104205</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.04365485339500097</v>
+        <v>0.1204062162634881</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.000804786283236254</v>
+        <v>0.002446980897897231</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1440598234254296</v>
+        <v>0.1884903056747547</v>
       </c>
       <c r="M8">
-        <v>0.4154759008109963</v>
+        <v>0.2350111075121291</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.162024076807029</v>
+        <v>2.787621731956264</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.391026453156201</v>
+        <v>1.367320714952939</v>
       </c>
       <c r="C9">
-        <v>0.559577628699202</v>
+        <v>0.3225685823209403</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.03822626568621801</v>
+        <v>0.1170047342062033</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.0007940026615701658</v>
+        <v>0.002440291673589723</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1796817387454581</v>
+        <v>0.195546503624783</v>
       </c>
       <c r="M9">
-        <v>0.5561646182861821</v>
+        <v>0.2758552700352936</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.147630079260423</v>
+        <v>2.695858156219074</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.034833978031884</v>
+        <v>1.561427767527846</v>
       </c>
       <c r="C10">
-        <v>0.6331349276601372</v>
+        <v>0.3467459762950966</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.0346543215726054</v>
+        <v>0.1147613033428757</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.0007864437888109603</v>
+        <v>0.002435823820806387</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2069770921376914</v>
+        <v>0.2011714308006418</v>
       </c>
       <c r="M10">
-        <v>0.6609830133915011</v>
+        <v>0.3060798860510303</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.168776297324655</v>
+        <v>2.640106786697203</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.329806653621404</v>
+        <v>1.649738391250366</v>
       </c>
       <c r="C11">
-        <v>0.6667902683380191</v>
+        <v>0.3577227327257049</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.03312454171158563</v>
+        <v>0.1137960023706711</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.0007830757560387978</v>
+        <v>0.002433887309635268</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2196912390132582</v>
+        <v>0.2038258628883938</v>
       </c>
       <c r="M11">
-        <v>0.7091063572116738</v>
+        <v>0.3198755503224646</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.186420634490304</v>
+        <v>2.617292814377549</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.441867943470413</v>
+        <v>1.683179620907993</v>
       </c>
       <c r="C12">
-        <v>0.6795680872008631</v>
+        <v>0.3618760010726874</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.03255936327076481</v>
+        <v>0.113438397613189</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.0007818097742705308</v>
+        <v>0.002433167725483757</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2245532488957878</v>
+        <v>0.2048447449435713</v>
       </c>
       <c r="M12">
-        <v>0.7274038240295795</v>
+        <v>0.3251060966596171</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.194359650183884</v>
+        <v>2.609021378242232</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.41771645947864</v>
+        <v>1.675977482533199</v>
       </c>
       <c r="C13">
-        <v>0.676814583994144</v>
+        <v>0.3609816756036253</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.03268044945987314</v>
+        <v>0.113515061508435</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.0007820820192722122</v>
+        <v>0.002433322091218989</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2235039396508256</v>
+        <v>0.2046247015790073</v>
       </c>
       <c r="M13">
-        <v>0.723459655237022</v>
+        <v>0.3239793227660925</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.192592173513702</v>
+        <v>2.61078640365821</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.339018399169277</v>
+        <v>1.652489632047889</v>
       </c>
       <c r="C14">
-        <v>0.6678408075963489</v>
+        <v>0.358064494144628</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.03307775862221085</v>
+        <v>0.113766423068256</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.0007829714184885983</v>
+        <v>0.002433827834014958</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2200902605985675</v>
+        <v>0.2039094124885281</v>
       </c>
       <c r="M14">
-        <v>0.7106101485889127</v>
+        <v>0.3203057430360303</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.187047956604744</v>
+        <v>2.616604940812266</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.290862497588762</v>
+        <v>1.638102587633796</v>
       </c>
       <c r="C15">
-        <v>0.6623486124913711</v>
+        <v>0.3562771865125001</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.03332297377519533</v>
+        <v>0.1139214221773918</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.0007835174053936056</v>
+        <v>0.002434139402686206</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2180056068329179</v>
+        <v>0.2034730609094737</v>
       </c>
       <c r="M15">
-        <v>0.7027494540293731</v>
+        <v>0.3180563995131678</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.183818944119452</v>
+        <v>2.620216891660533</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.015604064110164</v>
+        <v>1.555656533814499</v>
       </c>
       <c r="C16">
-        <v>0.6309398220720368</v>
+        <v>0.3460281598730717</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.03475624709671843</v>
+        <v>0.114825498827037</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.0007866652563914319</v>
+        <v>0.002435952301324096</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2061525677467984</v>
+        <v>0.2009998778227811</v>
       </c>
       <c r="M16">
-        <v>0.657847814477627</v>
+        <v>0.3051792191603155</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.167793336848604</v>
+        <v>2.641649115599336</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.847320799334625</v>
+        <v>1.505080075141962</v>
       </c>
       <c r="C17">
-        <v>0.6117248669896185</v>
+        <v>0.3397349683509674</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.03566017845769431</v>
+        <v>0.115394263016715</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.0007886139290404059</v>
+        <v>0.002437088981664155</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1989604844301169</v>
+        <v>0.1995071200968823</v>
       </c>
       <c r="M17">
-        <v>0.6304224431903194</v>
+        <v>0.2972911854474489</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.160088538050786</v>
+        <v>2.655450574779024</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.750722662933129</v>
+        <v>1.475990901274315</v>
       </c>
       <c r="C18">
-        <v>0.6006908177307082</v>
+        <v>0.3361132684547385</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.0361890207263631</v>
+        <v>0.1157266018747166</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.0007897414396898898</v>
+        <v>0.002437751803857276</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1948514750655335</v>
+        <v>0.1986575286035048</v>
       </c>
       <c r="M18">
-        <v>0.6146888986450207</v>
+        <v>0.2927585722487152</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.156405597754002</v>
+        <v>2.66362851956417</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.718047777828474</v>
+        <v>1.466142038449675</v>
       </c>
       <c r="C19">
-        <v>0.5969577931178094</v>
+        <v>0.3348866841923837</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.03636959757671965</v>
+        <v>0.11584001966077</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.0007901243648660581</v>
+        <v>0.002437977777921999</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1934648537877734</v>
+        <v>0.1983714192014219</v>
       </c>
       <c r="M19">
-        <v>0.6093684846432197</v>
+        <v>0.2912246659455562</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.155284181195697</v>
+        <v>2.666438559649023</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.865214353603733</v>
+        <v>1.510463926497664</v>
       </c>
       <c r="C20">
-        <v>0.6137684431472508</v>
+        <v>0.3404051006751843</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.03556302664530664</v>
+        <v>0.1153331789183798</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.0007884058026261549</v>
+        <v>0.002436967045595218</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1997231957992511</v>
+        <v>0.1996650952241623</v>
       </c>
       <c r="M20">
-        <v>0.6333376224535385</v>
+        <v>0.2981304290009703</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.160830520799209</v>
+        <v>2.653956566754431</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.362123616321753</v>
+        <v>1.659388597920895</v>
       </c>
       <c r="C21">
-        <v>0.6704756746597127</v>
+        <v>0.3589214352686554</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.03296067254995028</v>
+        <v>0.113692376849407</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.000782709930791764</v>
+        <v>0.002433678913114657</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2210916142387447</v>
+        <v>0.2041191386024792</v>
       </c>
       <c r="M21">
-        <v>0.7143822557425707</v>
+        <v>0.3213845898687353</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.188641431967653</v>
+        <v>2.614885904627215</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.689021216820606</v>
+        <v>1.756718253755992</v>
       </c>
       <c r="C22">
-        <v>0.7077339400882749</v>
+        <v>0.3710030387857444</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.03134238696953551</v>
+        <v>0.1126662570500458</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.0007790418741736151</v>
+        <v>0.002431609932066052</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.235336069684422</v>
+        <v>0.2071099834488592</v>
       </c>
       <c r="M22">
-        <v>0.7677877983120709</v>
+        <v>0.3366198862710732</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.214201447322665</v>
+        <v>2.591494959318766</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.514333143376916</v>
+        <v>1.704772213044635</v>
       </c>
       <c r="C23">
-        <v>0.6878285741240404</v>
+        <v>0.3645567700389165</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.03219839493780108</v>
+        <v>0.1132096891103909</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.0007809948500258651</v>
+        <v>0.002432706887040349</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2277063639576085</v>
+        <v>0.205506419755082</v>
       </c>
       <c r="M23">
-        <v>0.7392403484494636</v>
+        <v>0.3284851806874372</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.199847465041728</v>
+        <v>2.603782517392204</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.857124214446458</v>
+        <v>1.50802992485427</v>
       </c>
       <c r="C24">
-        <v>0.6128445026373299</v>
+        <v>0.3401021452320663</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.03560692048086622</v>
+        <v>0.1153607783775119</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.0007884998740625981</v>
+        <v>0.002437022143814601</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.199378293930053</v>
+        <v>0.199593647832117</v>
       </c>
       <c r="M24">
-        <v>0.6320195658491983</v>
+        <v>0.2977509997391508</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.160492752471924</v>
+        <v>2.654631250005849</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.15543251302671</v>
+        <v>1.295858068186362</v>
       </c>
       <c r="C25">
-        <v>0.5326277557005028</v>
+        <v>0.313647599553434</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.03962324870163003</v>
+        <v>0.1178799601580022</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.0007968533646105232</v>
+        <v>0.002442022509894166</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1698644503166804</v>
+        <v>0.1935601316353157</v>
       </c>
       <c r="M25">
-        <v>0.5178880576387499</v>
+        <v>0.2647673283617635</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.146315040832988</v>
+        <v>2.71863887354904</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_246/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_246/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.139697690234698</v>
+        <v>2.642907966173766</v>
       </c>
       <c r="C2">
-        <v>0.2941092967180055</v>
+        <v>0.4739464862545901</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1199065955010646</v>
+        <v>0.04285826369937595</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.002446004638016376</v>
+        <v>0.0008032514305850962</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1894141985854674</v>
+        <v>0.1488694074261474</v>
       </c>
       <c r="M2">
-        <v>0.240628942188124</v>
+        <v>0.4347875663344283</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.773599229613637</v>
+        <v>1.156748720357697</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.033918060399799</v>
+        <v>2.297217272738806</v>
       </c>
       <c r="C3">
-        <v>0.2808339296921645</v>
+        <v>0.4343322931290174</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1213875759088742</v>
+        <v>0.04521733187042387</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.002448892298213491</v>
+        <v>0.0008077533704891615</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1867897270564995</v>
+        <v>0.1350275566741317</v>
       </c>
       <c r="M3">
-        <v>0.2243639549636498</v>
+        <v>0.3788845219720685</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.815708847190933</v>
+        <v>1.175288126347226</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9690008673242119</v>
+        <v>2.085503248834641</v>
       </c>
       <c r="C4">
-        <v>0.2726673365299632</v>
+        <v>0.4100609658424048</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.122350048167013</v>
+        <v>0.04674594726104858</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.002450759036712857</v>
+        <v>0.0008106029372032879</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1852698444733676</v>
+        <v>0.1266975246457278</v>
       </c>
       <c r="M4">
-        <v>0.2144243922471105</v>
+        <v>0.3447146005137611</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.843955057983592</v>
+        <v>1.191856093432776</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9425561265253464</v>
+        <v>1.999327868109901</v>
       </c>
       <c r="C5">
-        <v>0.2693357656713999</v>
+        <v>0.4001801118455433</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1227556414531241</v>
+        <v>0.0473887211645907</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002451543380652392</v>
+        <v>0.000811786106931639</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1846735488726594</v>
+        <v>0.1233424590981755</v>
       </c>
       <c r="M5">
-        <v>0.210386037112869</v>
+        <v>0.3308223171321956</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.856065624789167</v>
+        <v>1.199845220451962</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9381656187150043</v>
+        <v>1.985023523514201</v>
       </c>
       <c r="C6">
-        <v>0.2687823503883351</v>
+        <v>0.3985399146835391</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1228237983344491</v>
+        <v>0.04749664365589812</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002451675050110112</v>
+        <v>0.0008119839107074791</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1845759291402587</v>
+        <v>0.1227876540223889</v>
       </c>
       <c r="M6">
-        <v>0.2097162087116757</v>
+        <v>0.3285172739419124</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.858112779961573</v>
+        <v>1.201244684798723</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9686441836462905</v>
+        <v>2.08434069969843</v>
       </c>
       <c r="C7">
-        <v>0.2726224200874299</v>
+        <v>0.4099276730543977</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1223554639535003</v>
+        <v>0.04675453594774681</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.002450769518830898</v>
+        <v>0.000810618804301813</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1852617091543749</v>
+        <v>0.126652120988517</v>
       </c>
       <c r="M7">
-        <v>0.2143698802926082</v>
+        <v>0.3445271223161797</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.844115957470251</v>
+        <v>1.191958911721485</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.103219117882873</v>
+        <v>2.523578692682804</v>
       </c>
       <c r="C8">
-        <v>0.2895353171104205</v>
+        <v>0.4602747419976936</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1204062162634881</v>
+        <v>0.04365485339506092</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.002446980897897231</v>
+        <v>0.0008047862833530352</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1884903056747547</v>
+        <v>0.1440598234254153</v>
       </c>
       <c r="M8">
-        <v>0.2350111075121291</v>
+        <v>0.4154759008110247</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.787621731956264</v>
+        <v>1.162024076807015</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.367320714952939</v>
+        <v>3.391026453155916</v>
       </c>
       <c r="C9">
-        <v>0.3225685823209403</v>
+        <v>0.5595776286987473</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1170047342062033</v>
+        <v>0.03822626568622034</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.002440291673589723</v>
+        <v>0.0007940026615706901</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.195546503624783</v>
+        <v>0.1796817387453515</v>
       </c>
       <c r="M9">
-        <v>0.2758552700352936</v>
+        <v>0.5561646182861679</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.695858156219074</v>
+        <v>1.147630079260367</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.561427767527846</v>
+        <v>4.034833978032054</v>
       </c>
       <c r="C10">
-        <v>0.3467459762950966</v>
+        <v>0.6331349276599099</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1147613033428757</v>
+        <v>0.03465432157260073</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.002435823820806387</v>
+        <v>0.0007864437888465429</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2011714308006418</v>
+        <v>0.2069770921376772</v>
       </c>
       <c r="M10">
-        <v>0.3060798860510303</v>
+        <v>0.6609830133915082</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.640106786697203</v>
+        <v>1.16877629732474</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.649738391250366</v>
+        <v>4.329806653621631</v>
       </c>
       <c r="C11">
-        <v>0.3577227327257049</v>
+        <v>0.6667902683376781</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1137960023706711</v>
+        <v>0.03312454171157986</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.002433887309635268</v>
+        <v>0.0007830757560370403</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2038258628883938</v>
+        <v>0.2196912390133008</v>
       </c>
       <c r="M11">
-        <v>0.3198755503224646</v>
+        <v>0.7091063572116809</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.617292814377549</v>
+        <v>1.186420634490219</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.683179620907993</v>
+        <v>4.44186794347047</v>
       </c>
       <c r="C12">
-        <v>0.3618760010726874</v>
+        <v>0.6795680872007495</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.113438397613189</v>
+        <v>0.03255936327076692</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.002433167725483757</v>
+        <v>0.0007818097742136043</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2048447449435713</v>
+        <v>0.2245532488957451</v>
       </c>
       <c r="M12">
-        <v>0.3251060966596171</v>
+        <v>0.7274038240295866</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.609021378242232</v>
+        <v>1.194359650183856</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.675977482533199</v>
+        <v>4.417716459478299</v>
       </c>
       <c r="C13">
-        <v>0.3609816756036253</v>
+        <v>0.6768145839942861</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.113515061508435</v>
+        <v>0.03268044945986026</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.002433322091218989</v>
+        <v>0.0007820820192935494</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2046247015790073</v>
+        <v>0.2235039396508398</v>
       </c>
       <c r="M13">
-        <v>0.3239793227660925</v>
+        <v>0.7234596552370292</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.61078640365821</v>
+        <v>1.192592173513674</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.652489632047889</v>
+        <v>4.339018399169049</v>
       </c>
       <c r="C14">
-        <v>0.358064494144628</v>
+        <v>0.6678408075961215</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.113766423068256</v>
+        <v>0.03307775862221196</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.002433827834014958</v>
+        <v>0.0007829714184689634</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2039094124885281</v>
+        <v>0.2200902605984965</v>
       </c>
       <c r="M14">
-        <v>0.3203057430360303</v>
+        <v>0.7106101485888914</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.616604940812266</v>
+        <v>1.187047956604715</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.638102587633796</v>
+        <v>4.290862497588478</v>
       </c>
       <c r="C15">
-        <v>0.3562771865125001</v>
+        <v>0.6623486124914564</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1139214221773918</v>
+        <v>0.03332297377522142</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.002434139402686206</v>
+        <v>0.0007835174054542469</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2034730609094737</v>
+        <v>0.2180056068328327</v>
       </c>
       <c r="M15">
-        <v>0.3180563995131678</v>
+        <v>0.7027494540293802</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.620216891660533</v>
+        <v>1.183818944119452</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.555656533814499</v>
+        <v>4.01560406411005</v>
       </c>
       <c r="C16">
-        <v>0.3460281598730717</v>
+        <v>0.6309398220722642</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.114825498827037</v>
+        <v>0.03475624709671932</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002435952301324096</v>
+        <v>0.0007866652563918315</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2009998778227811</v>
+        <v>0.2061525677467415</v>
       </c>
       <c r="M16">
-        <v>0.3051792191603155</v>
+        <v>0.6578478144776199</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.641649115599336</v>
+        <v>1.167793336848604</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.505080075141962</v>
+        <v>3.847320799334682</v>
       </c>
       <c r="C17">
-        <v>0.3397349683509674</v>
+        <v>0.6117248669897037</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.115394263016715</v>
+        <v>0.03566017845768066</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.002437088981664155</v>
+        <v>0.0007886139289829465</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1995071200968823</v>
+        <v>0.1989604844301596</v>
       </c>
       <c r="M17">
-        <v>0.2972911854474489</v>
+        <v>0.6304224431903478</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.655450574779024</v>
+        <v>1.160088538050871</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.475990901274315</v>
+        <v>3.750722662933072</v>
       </c>
       <c r="C18">
-        <v>0.3361132684547385</v>
+        <v>0.6006908177307366</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1157266018747166</v>
+        <v>0.03618902072636732</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.002437751803857276</v>
+        <v>0.0007897414396914704</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1986575286035048</v>
+        <v>0.1948514750655193</v>
       </c>
       <c r="M18">
-        <v>0.2927585722487152</v>
+        <v>0.6146888986450136</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.66362851956417</v>
+        <v>1.156405597754087</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.466142038449675</v>
+        <v>3.718047777828531</v>
       </c>
       <c r="C19">
-        <v>0.3348866841923837</v>
+        <v>0.5969577931180368</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.11584001966077</v>
+        <v>0.03636959757671632</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.002437977777921999</v>
+        <v>0.0007901243648649491</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1983714192014219</v>
+        <v>0.1934648537878161</v>
       </c>
       <c r="M19">
-        <v>0.2912246659455562</v>
+        <v>0.6093684846432268</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.666438559649023</v>
+        <v>1.155284181195697</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.510463926497664</v>
+        <v>3.86521435360379</v>
       </c>
       <c r="C20">
-        <v>0.3404051006751843</v>
+        <v>0.6137684431472508</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1153331789183798</v>
+        <v>0.03556302664528754</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.002436967045595218</v>
+        <v>0.000788405802684527</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1996650952241623</v>
+        <v>0.1997231957992369</v>
       </c>
       <c r="M20">
-        <v>0.2981304290009703</v>
+        <v>0.6333376224535385</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.653956566754431</v>
+        <v>1.16083052079918</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.659388597920895</v>
+        <v>4.36212361632181</v>
       </c>
       <c r="C21">
-        <v>0.3589214352686554</v>
+        <v>0.6704756746597127</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.113692376849407</v>
+        <v>0.03296067254996349</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.002433678913114657</v>
+        <v>0.0007827099307935097</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2041191386024792</v>
+        <v>0.2210916142388584</v>
       </c>
       <c r="M21">
-        <v>0.3213845898687353</v>
+        <v>0.7143822557425423</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.614885904627215</v>
+        <v>1.188641431967596</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.756718253755992</v>
+        <v>4.689021216820549</v>
       </c>
       <c r="C22">
-        <v>0.3710030387857444</v>
+        <v>0.7077339400885023</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1126662570500458</v>
+        <v>0.03134238696953462</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.002431609932066052</v>
+        <v>0.0007790418741375449</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2071099834488592</v>
+        <v>0.235336069684422</v>
       </c>
       <c r="M22">
-        <v>0.3366198862710732</v>
+        <v>0.767787798312078</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.591494959318766</v>
+        <v>1.214201447322665</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.704772213044635</v>
+        <v>4.514333143376689</v>
       </c>
       <c r="C23">
-        <v>0.3645567700389165</v>
+        <v>0.6878285741240973</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1132096891103909</v>
+        <v>0.03219839493783283</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.002432706887040349</v>
+        <v>0.0007809948499485801</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.205506419755082</v>
+        <v>0.2277063639575516</v>
       </c>
       <c r="M23">
-        <v>0.3284851806874372</v>
+        <v>0.7392403484494778</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.603782517392204</v>
+        <v>1.199847465041671</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.50802992485427</v>
+        <v>3.857124214446628</v>
       </c>
       <c r="C24">
-        <v>0.3401021452320663</v>
+        <v>0.6128445026373015</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1153607783775119</v>
+        <v>0.03560692048086678</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.002437022143814601</v>
+        <v>0.0007884998741388582</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.199593647832117</v>
+        <v>0.1993782939300104</v>
       </c>
       <c r="M24">
-        <v>0.2977509997391508</v>
+        <v>0.6320195658492125</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.654631250005849</v>
+        <v>1.160492752471896</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.295858068186362</v>
+        <v>3.15543251302671</v>
       </c>
       <c r="C25">
-        <v>0.313647599553434</v>
+        <v>0.5326277557007586</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1178799601580022</v>
+        <v>0.03962324870161749</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.002442022509894166</v>
+        <v>0.0007968533646296246</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1935601316353157</v>
+        <v>0.1698644503166733</v>
       </c>
       <c r="M25">
-        <v>0.2647673283617635</v>
+        <v>0.517888057638757</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.71863887354904</v>
+        <v>1.146315040833059</v>
       </c>
     </row>
   </sheetData>
